--- a/MyAutoMLLibrary/excel_file.xlsx
+++ b/MyAutoMLLibrary/excel_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>precision_micro</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>precision_macro</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>f1_micro</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro</t>
         </is>
       </c>
     </row>
@@ -471,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,13 +505,25 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7836</v>
+        <v>0.7961</v>
       </c>
       <c r="F2" t="n">
-        <v>4.4532</v>
+        <v>0.7961</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3447</v>
+        <v>0.796</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7961</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7962</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7961</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7961</v>
       </c>
     </row>
     <row r="3">
@@ -500,12 +532,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lasso</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>all_features</t>
+          <t>anova_classifier</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -514,13 +546,25 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6695</v>
+        <v>0.7765</v>
       </c>
       <c r="F3" t="n">
-        <v>5.504</v>
+        <v>0.7765</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8993</v>
+        <v>0.7768</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7765</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7768</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7765</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7765</v>
       </c>
     </row>
     <row r="4">
@@ -529,12 +573,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ridge</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>all_features</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,13 +587,25 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7891</v>
+        <v>0.8196</v>
       </c>
       <c r="F4" t="n">
-        <v>4.3971</v>
+        <v>0.8196</v>
       </c>
       <c r="G4" t="n">
-        <v>3.289</v>
+        <v>0.8197</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8196</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8194</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8196</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8195</v>
       </c>
     </row>
     <row r="5">
@@ -558,12 +614,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LinearRegression</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>anova_regressor</t>
+          <t>select_from_model</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,332 +628,25 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7836</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>4.4532</v>
+        <v>0.8</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3447</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lasso</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>anova_regressor</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6695</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.504</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.8993</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ridge</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>anova_regressor</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0.7891</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.3971</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.289</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LinearRegression</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7743</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.5484</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.4173</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Lasso</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6498</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.6658</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.0209</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ridge</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0.7796999999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.4937</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LinearRegression</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0.7887999999999999</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.4001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.297</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Lasso</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6741</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5.4655</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.9103</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ridge</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0.7881</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.4073</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.3004</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LinearRegression</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>select_from_model</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6401</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.7433</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.3337</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Lasso</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>select_from_model</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0.6695</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.504</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.8993</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Ridge</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>select_from_model</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0.6429</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.7208</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.3016</v>
+        <v>0.8051</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8012</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7996</v>
       </c>
     </row>
   </sheetData>
